--- a/Excel Equations.xlsx
+++ b/Excel Equations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\PitotSensor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\Digital-PitotStatic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97313B44-D2FC-4207-9224-11D5B6644043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0441F331-A5E5-449D-8091-EA6D5EC3659E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3AFCDE54-5922-418B-97A8-0556D60134B0}"/>
   </bookViews>
@@ -56,17 +56,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>kpa</t>
   </si>
   <si>
-    <t>inhg/knot</t>
-  </si>
-  <si>
-    <t>mph/kpa</t>
-  </si>
-  <si>
     <t>mph = (difference * 7.4904692082) + 62.954;</t>
   </si>
   <si>
@@ -88,12 +82,6 @@
     <t>freq</t>
   </si>
   <si>
-    <t>val*2 ( Seconds)</t>
-  </si>
-  <si>
-    <t>val</t>
-  </si>
-  <si>
     <t>Analog</t>
   </si>
   <si>
@@ -173,6 +161,27 @@
   </si>
   <si>
     <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>MPH</t>
+  </si>
+  <si>
+    <t>KPA</t>
+  </si>
+  <si>
+    <t>Knots</t>
+  </si>
+  <si>
+    <t>inHg</t>
+  </si>
+  <si>
+    <t>full Period ( Seconds)</t>
+  </si>
+  <si>
+    <t>half period</t>
+  </si>
+  <si>
+    <t>Frequency</t>
   </si>
 </sst>
 </file>
@@ -236,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -246,11 +255,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -398,7 +462,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$C$24</c:f>
+              <c:f>Sheet1!$D$21:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -422,7 +486,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$20:$D$24</c:f>
+              <c:f>Sheet1!$E$21:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -883,7 +947,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:f>Sheet1!$B$28:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -907,7 +971,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$27:$G$31</c:f>
+              <c:f>Sheet1!$H$28:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2239,15 +2303,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>130580</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>66429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>433950</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>47380</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2275,16 +2339,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>325550</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3578</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>95161</xdr:rowOff>
+      <xdr:rowOff>157767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>32198</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>318395</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>21106</xdr:rowOff>
+      <xdr:rowOff>83712</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2310,6 +2374,67 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1574B54B-CD5A-4842-98D4-AFA82D4E6DF5}" name="Table1" displayName="Table1" ref="C1:D6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="C1:D6" xr:uid="{1574B54B-CD5A-4842-98D4-AFA82D4E6DF5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8FA7CB15-2291-4CB4-B4E9-2BA953417F46}" name="Knots" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{2A1E1723-AA2C-4AEC-ADF8-9663481DECB0}" name="inHg" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3769B4EA-DC60-4A30-8239-DB0DAF76A85B}" name="Table2" displayName="Table2" ref="F1:G6" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="F1:G6" xr:uid="{3769B4EA-DC60-4A30-8239-DB0DAF76A85B}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{708F1BD6-D8EC-4CC7-95B3-15D5EC0EB981}" name="MPH" dataDxfId="3">
+      <calculatedColumnFormula>1.15078*C8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{E4D5AFAB-DC88-40FB-8A53-28787EDED61B}" name="KPA" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{59205FE5-398B-4ECD-BC69-04C14F7B1BC8}" name="Table3" displayName="Table3" ref="B20:H25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B20:H25" xr:uid="{59205FE5-398B-4ECD-BC69-04C14F7B1BC8}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{DDAE1C2F-92D5-4062-B923-F4D152FD6FCD}" name="Analog" dataDxfId="16">
+      <calculatedColumnFormula>C21/4.9</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{693939AE-5E1D-4903-A54E-C5EDB180CF59}" name="mV" dataDxfId="15">
+      <calculatedColumnFormula>D21*20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{B177727D-614E-4E99-B29A-611D2E5DE21B}" name="kPa" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{BBC7C213-6C88-4BF8-B8DD-E5EEBE92397C}" name="mph" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{72768BD7-8151-41DF-AB24-23D601F6CD0B}" name="freq" dataDxfId="12">
+      <calculatedColumnFormula>3.9851*E21+0.527</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{44519502-9920-4E55-8DE8-C8F9EBF0969B}" name="full Period ( Seconds)" dataDxfId="11">
+      <calculatedColumnFormula>1/F21</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{C074C397-EC9F-42EE-A28D-9C7AB7AE2369}" name="half period" dataDxfId="10">
+      <calculatedColumnFormula>G21/2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{23F28327-33CF-47AF-901F-7D23D22AE815}" name="Table5" displayName="Table5" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{23F28327-33CF-47AF-901F-7D23D22AE815}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F8474FA5-0280-4127-B6E3-38BA18884D9B}" name="MPH"/>
+    <tableColumn id="2" xr3:uid="{25C5DC2C-CB65-4EEA-B6CE-408837CC243C}" name="Frequency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2609,1014 +2734,1077 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A32C37C-65C6-4ACF-AEA3-2B9A5C083AB6}">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="71" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C2" s="5">
         <v>90</v>
       </c>
-      <c r="C1">
+      <c r="D2" s="5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B2">
+      <c r="F2" s="5">
+        <f>1.15078*C8</f>
+        <v>103.57019999999999</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1.3545560000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5">
         <v>65</v>
       </c>
-      <c r="C2">
+      <c r="D3" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>120</v>
-      </c>
-      <c r="C3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F3" s="5">
+        <f>1.15078*C9</f>
+        <v>74.800699999999992</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.33863900000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>20</v>
+      </c>
       <c r="B4">
         <v>80</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
+        <v>120</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="5">
+        <f>1.15078*C10</f>
+        <v>138.09359999999998</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2.3704730000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>120</v>
+      </c>
+      <c r="C5" s="5">
+        <v>80</v>
+      </c>
+      <c r="D5" s="5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5">
+      <c r="F5" s="5">
+        <f>1.15078*C11</f>
+        <v>92.062399999999997</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.015917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6" s="5">
         <v>135</v>
       </c>
-      <c r="C5">
+      <c r="D6" s="5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="F6" s="5">
+        <f>1.15078*C12</f>
+        <v>155.3553</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3.0477509999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>90</v>
       </c>
-      <c r="C7">
-        <f>3.38639*C1</f>
+      <c r="D8">
+        <f>3.38639*D2</f>
         <v>1.3545560000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C9">
         <v>65</v>
       </c>
-      <c r="C8">
-        <f t="shared" ref="C8:C10" si="0">3.38639*C2</f>
+      <c r="D9">
+        <f t="shared" ref="D9:D11" si="0">3.38639*D3</f>
         <v>0.33863900000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C10">
         <v>120</v>
       </c>
-      <c r="C9">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>2.3704730000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C11">
         <v>80</v>
       </c>
-      <c r="C10">
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>1.015917</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B11">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C12">
         <v>135</v>
       </c>
-      <c r="C11">
-        <f>3.38639*C5</f>
+      <c r="D12">
+        <f>3.38639*D6</f>
         <v>3.0477509999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="5">
+        <f>C21/4.9</f>
+        <v>5.5288000000000004</v>
+      </c>
+      <c r="C21" s="5">
+        <f>D21*20</f>
+        <v>27.091120000000004</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1.3545560000000001</v>
+      </c>
+      <c r="E21" s="5">
+        <v>103.57019999999999</v>
+      </c>
+      <c r="F21" s="5">
+        <f>3.9851*E21+0.527</f>
+        <v>413.26460401999992</v>
+      </c>
+      <c r="G21" s="5">
+        <f>1/F21</f>
+        <v>2.4197571973805071E-3</v>
+      </c>
+      <c r="H21" s="5">
+        <f>G21/2</f>
+        <v>1.2098785986902536E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="5">
+        <f t="shared" ref="B22:B25" si="1">C22/4.9</f>
+        <v>1.3822000000000001</v>
+      </c>
+      <c r="C22" s="5">
+        <f>D22*20</f>
+        <v>6.7727800000000009</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.33863900000000002</v>
+      </c>
+      <c r="E22" s="5">
+        <v>74.800699999999992</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F25" si="2">3.9851*E22+0.527</f>
+        <v>298.61526956999995</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" ref="G22:G25" si="3">1/F22</f>
+        <v>3.3487905740385618E-3</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" ref="H22:H25" si="4">G22/2</f>
+        <v>1.6743952870192809E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="5">
+        <f t="shared" si="1"/>
+        <v>9.6753999999999998</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" ref="C23:C25" si="5">D23*20</f>
+        <v>47.409460000000003</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2.3704730000000001</v>
+      </c>
+      <c r="E23" s="5">
+        <v>138.09359999999998</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="2"/>
+        <v>550.84380536000003</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="3"/>
+        <v>1.815396651953737E-3</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="4"/>
+        <v>9.0769832597686851E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="5">
+        <f t="shared" si="1"/>
+        <v>4.1465999999999994</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="5"/>
+        <v>20.318339999999999</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1.015917</v>
+      </c>
+      <c r="E24" s="5">
+        <v>92.062399999999997</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="2"/>
+        <v>367.40487023999998</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="3"/>
+        <v>2.721792989153273E-3</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3608964945766365E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="5">
+        <f t="shared" si="1"/>
+        <v>12.439799999999998</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="5"/>
+        <v>60.955019999999998</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3.0477509999999999</v>
+      </c>
+      <c r="E25" s="5">
+        <v>155.3553</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="2"/>
+        <v>619.63340603000006</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="3"/>
+        <v>1.6138574684134836E-3</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="4"/>
+        <v>8.0692873420674179E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" cm="1">
+        <f t="array" ref="B28:H32">_xlfn.SORTBY(B21:H25,D21:D25)</f>
+        <v>1.3822000000000001</v>
+      </c>
+      <c r="C28">
+        <v>6.7727800000000009</v>
+      </c>
+      <c r="D28">
+        <v>0.33863900000000002</v>
+      </c>
+      <c r="E28">
+        <v>74.800699999999992</v>
+      </c>
+      <c r="F28">
+        <v>298.61526956999995</v>
+      </c>
+      <c r="G28">
+        <v>3.3487905740385618E-3</v>
+      </c>
+      <c r="H28">
+        <v>1.6743952870192809E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>4.1465999999999994</v>
+      </c>
+      <c r="C29">
+        <v>20.318339999999999</v>
+      </c>
+      <c r="D29">
+        <v>1.015917</v>
+      </c>
+      <c r="E29">
+        <v>92.062399999999997</v>
+      </c>
+      <c r="F29">
+        <v>367.40487023999998</v>
+      </c>
+      <c r="G29">
+        <v>2.721792989153273E-3</v>
+      </c>
+      <c r="H29">
+        <v>1.3608964945766365E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>5.5288000000000004</v>
+      </c>
+      <c r="C30">
+        <v>27.091120000000004</v>
+      </c>
+      <c r="D30">
+        <v>1.3545560000000001</v>
+      </c>
+      <c r="E30">
+        <v>103.57019999999999</v>
+      </c>
+      <c r="F30">
+        <v>413.26460401999992</v>
+      </c>
+      <c r="G30">
+        <v>2.4197571973805071E-3</v>
+      </c>
+      <c r="H30">
+        <v>1.2098785986902536E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>9.6753999999999998</v>
+      </c>
+      <c r="C31">
+        <v>47.409460000000003</v>
+      </c>
+      <c r="D31">
+        <v>2.3704730000000001</v>
+      </c>
+      <c r="E31">
+        <v>138.09359999999998</v>
+      </c>
+      <c r="F31">
+        <v>550.84380536000003</v>
+      </c>
+      <c r="G31">
+        <v>1.815396651953737E-3</v>
+      </c>
+      <c r="H31">
+        <v>9.0769832597686851E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>12.439799999999998</v>
+      </c>
+      <c r="C32">
+        <v>60.955019999999998</v>
+      </c>
+      <c r="D32">
+        <v>3.0477509999999999</v>
+      </c>
+      <c r="E32">
+        <v>155.3553</v>
+      </c>
+      <c r="F32">
+        <v>619.63340603000006</v>
+      </c>
+      <c r="G32">
+        <v>1.6138574684134836E-3</v>
+      </c>
+      <c r="H32">
+        <v>8.0692873420674179E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
         <v>2</v>
       </c>
-      <c r="B13">
-        <f>1.15078*B7</f>
-        <v>103.57019999999999</v>
-      </c>
-      <c r="C13">
-        <v>1.3545560000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <f t="shared" ref="B14:B16" si="1">1.15078*B8</f>
-        <v>74.800699999999992</v>
-      </c>
-      <c r="C14">
-        <v>0.33863900000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15">
-        <f t="shared" si="1"/>
-        <v>138.09359999999998</v>
-      </c>
-      <c r="C15">
-        <v>2.3704730000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <f t="shared" si="1"/>
-        <v>92.062399999999997</v>
-      </c>
-      <c r="C16">
-        <v>1.015917</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <f>1.15078*B11</f>
-        <v>155.3553</v>
-      </c>
-      <c r="C17">
-        <v>3.0477509999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
+      <c r="I38" s="1">
+        <v>0.98210607262563787</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <f>B20/4.9</f>
-        <v>5.5288000000000004</v>
-      </c>
-      <c r="B20">
-        <f>C20*20</f>
-        <v>27.091120000000004</v>
-      </c>
-      <c r="C20">
-        <v>1.3545560000000001</v>
-      </c>
-      <c r="D20">
-        <v>103.57019999999999</v>
-      </c>
-      <c r="E20">
-        <f>3.9851*D20+0.527</f>
-        <v>413.26460401999992</v>
-      </c>
-      <c r="F20">
-        <f>1/E20</f>
-        <v>2.4197571973805071E-3</v>
-      </c>
-      <c r="G20">
-        <f>F20/2</f>
-        <v>1.2098785986902536E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <f t="shared" ref="A21:A24" si="2">B21/4.9</f>
-        <v>1.3822000000000001</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ref="B21:B24" si="3">C21*20</f>
-        <v>6.7727800000000009</v>
-      </c>
-      <c r="C21">
-        <v>0.33863900000000002</v>
-      </c>
-      <c r="D21">
-        <v>74.800699999999992</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ref="E21:E24" si="4">3.9851*D21+0.527</f>
-        <v>298.61526956999995</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ref="F21:F24" si="5">1/E21</f>
-        <v>3.3487905740385618E-3</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ref="G21:G24" si="6">F21/2</f>
-        <v>1.6743952870192809E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <f t="shared" si="2"/>
-        <v>9.6753999999999998</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="3"/>
-        <v>47.409460000000003</v>
-      </c>
-      <c r="C22">
-        <v>2.3704730000000001</v>
-      </c>
-      <c r="D22">
-        <v>138.09359999999998</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="4"/>
-        <v>550.84380536000003</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="5"/>
-        <v>1.815396651953737E-3</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="6"/>
-        <v>9.0769832597686851E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <f t="shared" si="2"/>
-        <v>4.1465999999999994</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="3"/>
-        <v>20.318339999999999</v>
-      </c>
-      <c r="C23">
-        <v>1.015917</v>
-      </c>
-      <c r="D23">
-        <v>92.062399999999997</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="4"/>
-        <v>367.40487023999998</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="5"/>
-        <v>2.721792989153273E-3</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="6"/>
-        <v>1.3608964945766365E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <f t="shared" si="2"/>
-        <v>12.439799999999998</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="3"/>
-        <v>60.955019999999998</v>
-      </c>
-      <c r="C24">
-        <v>3.0477509999999999</v>
-      </c>
-      <c r="D24">
-        <v>155.3553</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="4"/>
-        <v>619.63340603000006</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="5"/>
-        <v>1.6138574684134836E-3</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="6"/>
-        <v>8.0692873420674179E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" cm="1">
-        <f t="array" ref="A27:G31">_xlfn.SORTBY(A20:G24,C20:C24)</f>
-        <v>1.3822000000000001</v>
-      </c>
-      <c r="B27">
-        <v>6.7727800000000009</v>
-      </c>
-      <c r="C27">
-        <v>0.33863900000000002</v>
-      </c>
-      <c r="D27">
-        <v>74.800699999999992</v>
-      </c>
-      <c r="E27">
-        <v>298.61526956999995</v>
-      </c>
-      <c r="F27">
-        <v>3.3487905740385618E-3</v>
-      </c>
-      <c r="G27">
-        <v>1.6743952870192809E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>4.1465999999999994</v>
-      </c>
-      <c r="B28">
-        <v>20.318339999999999</v>
-      </c>
-      <c r="C28">
-        <v>1.015917</v>
-      </c>
-      <c r="D28">
-        <v>92.062399999999997</v>
-      </c>
-      <c r="E28">
-        <v>367.40487023999998</v>
-      </c>
-      <c r="F28">
-        <v>2.721792989153273E-3</v>
-      </c>
-      <c r="G28">
-        <v>1.3608964945766365E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>5.5288000000000004</v>
-      </c>
-      <c r="B29">
-        <v>27.091120000000004</v>
-      </c>
-      <c r="C29">
-        <v>1.3545560000000001</v>
-      </c>
-      <c r="D29">
-        <v>103.57019999999999</v>
-      </c>
-      <c r="E29">
-        <v>413.26460401999992</v>
-      </c>
-      <c r="F29">
-        <v>2.4197571973805071E-3</v>
-      </c>
-      <c r="G29">
-        <v>1.2098785986902536E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>9.6753999999999998</v>
-      </c>
-      <c r="B30">
-        <v>47.409460000000003</v>
-      </c>
-      <c r="C30">
-        <v>2.3704730000000001</v>
-      </c>
-      <c r="D30">
-        <v>138.09359999999998</v>
-      </c>
-      <c r="E30">
-        <v>550.84380536000003</v>
-      </c>
-      <c r="F30">
-        <v>1.815396651953737E-3</v>
-      </c>
-      <c r="G30">
-        <v>9.0769832597686851E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>12.439799999999998</v>
-      </c>
-      <c r="B31">
-        <v>60.955019999999998</v>
-      </c>
-      <c r="C31">
-        <v>3.0477509999999999</v>
-      </c>
-      <c r="D31">
-        <v>155.3553</v>
-      </c>
-      <c r="E31">
-        <v>619.63340603000006</v>
-      </c>
-      <c r="F31">
-        <v>1.6138574684134836E-3</v>
-      </c>
-      <c r="G31">
-        <v>8.0692873420674179E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.98210607262563787</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="1">
+      <c r="I39" s="1">
         <v>0.96453233788815473</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B40">
         <f xml:space="preserve"> 1 / (3.9851*( (2 * 7.4904692082) + 62.954)+0.527)</f>
         <v>3.2143434487743911E-3</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.95270978385087302</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="1">
+        <v>7.6163200050325327E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="1">
-        <v>0.95270978385087302</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G40" s="1" t="s">
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>4.7325569737000416E-7</v>
+      </c>
+      <c r="K46" s="1">
+        <v>4.7325569737000416E-7</v>
+      </c>
+      <c r="L46" s="1">
+        <v>81.584092138344843</v>
+      </c>
+      <c r="M46" s="1">
+        <v>2.8656505975103814E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="1">
-        <v>7.6163200050325327E-5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="I47" s="1">
+        <v>3</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1.7402499125717625E-8</v>
+      </c>
+      <c r="K47" s="1">
+        <v>5.8008330419058754E-9</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G43" t="s">
+      <c r="I48" s="2">
+        <v>4</v>
+      </c>
+      <c r="J48" s="2">
+        <v>4.9065819649572179E-7</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>-1</v>
+      </c>
+      <c r="C51">
+        <f>-0.0000779196432202072*B51+0.00171</f>
+        <v>1.7879196432202071E-3</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51:D71" si="6">C51-$C$47</f>
+        <v>1.7879196432202071E-3</v>
+      </c>
+      <c r="E51">
+        <f>1/(2*D51)</f>
+        <v>279.65462647943963</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G44" s="3"/>
-      <c r="H44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="1">
+      <c r="I51" s="1">
+        <v>1.7089220362170099E-3</v>
+      </c>
+      <c r="J51" s="1">
+        <v>6.6602786350818157E-5</v>
+      </c>
+      <c r="K51" s="1">
+        <v>25.658416559565168</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1.2984088815592472E-4</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1.4969622448732522E-3</v>
+      </c>
+      <c r="N51" s="1">
+        <v>1.920881827560775E-3</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1.4969622448732522E-3</v>
+      </c>
+      <c r="P51" s="1">
+        <v>1.920881827560775E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:C71" si="7">-0.0000779196432202072*B52+0.00171</f>
+        <v>1.7099999999999999E-3</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="6"/>
+        <v>1.7099999999999999E-3</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ref="E52:E71" si="8">1/(2*D52)</f>
+        <v>292.39766081871346</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="2">
+        <v>-7.791964322020717E-5</v>
+      </c>
+      <c r="J52" s="2">
+        <v>8.6266904135239845E-6</v>
+      </c>
+      <c r="K52" s="2">
+        <v>-9.0323912746484147</v>
+      </c>
+      <c r="L52" s="2">
+        <v>2.865650597510384E-3</v>
+      </c>
+      <c r="M52" s="2">
+        <v>-1.0537362225355296E-4</v>
+      </c>
+      <c r="N52" s="2">
+        <v>-5.0465664186861372E-5</v>
+      </c>
+      <c r="O52" s="2">
+        <v>-1.0537362225355296E-4</v>
+      </c>
+      <c r="P52" s="2">
+        <v>-5.0465664186861372E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B53">
         <v>1</v>
       </c>
-      <c r="I45" s="1">
-        <v>4.7325569737000416E-7</v>
-      </c>
-      <c r="J45" s="1">
-        <v>4.7325569737000416E-7</v>
-      </c>
-      <c r="K45" s="1">
-        <v>81.584092138344843</v>
-      </c>
-      <c r="L45" s="1">
-        <v>2.8656505975103814E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="1">
-        <v>3</v>
-      </c>
-      <c r="I46" s="1">
-        <v>1.7402499125717625E-8</v>
-      </c>
-      <c r="J46" s="1">
-        <v>5.8008330419058754E-9</v>
-      </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="2">
-        <v>4</v>
-      </c>
-      <c r="I47" s="2">
-        <v>4.9065819649572179E-7</v>
-      </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>-1</v>
-      </c>
-      <c r="B50">
-        <f>-0.0000779196432202072*A50+0.00171</f>
-        <v>1.7879196432202071E-3</v>
-      </c>
-      <c r="C50">
-        <f>B50-$B$46</f>
-        <v>1.7879196432202071E-3</v>
-      </c>
-      <c r="D50">
-        <f>1/(2*C50)</f>
-        <v>279.65462647943963</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" s="1">
-        <v>1.7089220362170099E-3</v>
-      </c>
-      <c r="I50" s="1">
-        <v>6.6602786350818157E-5</v>
-      </c>
-      <c r="J50" s="1">
-        <v>25.658416559565168</v>
-      </c>
-      <c r="K50" s="1">
-        <v>1.2984088815592472E-4</v>
-      </c>
-      <c r="L50" s="1">
-        <v>1.4969622448732522E-3</v>
-      </c>
-      <c r="M50" s="1">
-        <v>1.920881827560775E-3</v>
-      </c>
-      <c r="N50" s="1">
-        <v>1.4969622448732522E-3</v>
-      </c>
-      <c r="O50" s="1">
-        <v>1.920881827560775E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51">
-        <v>0</v>
-      </c>
-      <c r="B51">
-        <f t="shared" ref="B51:B70" si="7">-0.0000779196432202072*A51+0.00171</f>
-        <v>1.7099999999999999E-3</v>
-      </c>
-      <c r="C51">
-        <f>B51-$B$46</f>
-        <v>1.7099999999999999E-3</v>
-      </c>
-      <c r="D51">
-        <f t="shared" ref="D51:D70" si="8">1/(2*C51)</f>
-        <v>292.39766081871346</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H51" s="2">
-        <v>-7.791964322020717E-5</v>
-      </c>
-      <c r="I51" s="2">
-        <v>8.6266904135239845E-6</v>
-      </c>
-      <c r="J51" s="2">
-        <v>-9.0323912746484147</v>
-      </c>
-      <c r="K51" s="2">
-        <v>2.865650597510384E-3</v>
-      </c>
-      <c r="L51" s="2">
-        <v>-1.0537362225355296E-4</v>
-      </c>
-      <c r="M51" s="2">
-        <v>-5.0465664186861372E-5</v>
-      </c>
-      <c r="N51" s="2">
-        <v>-1.0537362225355296E-4</v>
-      </c>
-      <c r="O51" s="2">
-        <v>-5.0465664186861372E-5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52">
+      <c r="C53">
         <f t="shared" si="7"/>
         <v>1.6320803567797927E-3</v>
       </c>
-      <c r="C52">
-        <f>B52-$B$46</f>
+      <c r="D53">
+        <f t="shared" si="6"/>
         <v>1.6320803567797927E-3</v>
       </c>
-      <c r="D52">
+      <c r="E53">
         <f t="shared" si="8"/>
         <v>306.35746452247889</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A53">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B54">
         <v>2</v>
       </c>
-      <c r="B53">
+      <c r="C54">
         <f t="shared" si="7"/>
         <v>1.5541607135595855E-3</v>
       </c>
-      <c r="C53">
-        <f>B53-$B$46</f>
+      <c r="D54">
+        <f t="shared" si="6"/>
         <v>1.5541607135595855E-3</v>
       </c>
-      <c r="D53">
+      <c r="E54">
         <f t="shared" si="8"/>
         <v>321.71705000496416</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B55">
         <v>3</v>
       </c>
-      <c r="B54">
+      <c r="C55">
         <f t="shared" si="7"/>
         <v>1.4762410703393783E-3</v>
       </c>
-      <c r="C54">
-        <f>B54-$B$46</f>
+      <c r="D55">
+        <f t="shared" si="6"/>
         <v>1.4762410703393783E-3</v>
       </c>
-      <c r="D54">
+      <c r="E55">
         <f t="shared" si="8"/>
         <v>338.69806906608636</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B56">
         <v>4</v>
       </c>
-      <c r="B55">
+      <c r="C56">
         <f t="shared" si="7"/>
         <v>1.3983214271191711E-3</v>
       </c>
-      <c r="C55">
-        <f>B55-$B$46</f>
+      <c r="D56">
+        <f t="shared" si="6"/>
         <v>1.3983214271191711E-3</v>
       </c>
-      <c r="D55">
+      <c r="E56">
         <f t="shared" si="8"/>
         <v>357.57157853906489</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B57">
         <v>5</v>
       </c>
-      <c r="B56">
+      <c r="C57">
         <f t="shared" si="7"/>
         <v>1.3204017838989639E-3</v>
       </c>
-      <c r="C56">
-        <f>B56-$B$46</f>
+      <c r="D57">
+        <f t="shared" si="6"/>
         <v>1.3204017838989639E-3</v>
       </c>
-      <c r="D56">
+      <c r="E57">
         <f t="shared" si="8"/>
         <v>378.67261775697483</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B58">
         <v>6</v>
       </c>
-      <c r="B57">
+      <c r="C58">
         <f t="shared" si="7"/>
         <v>1.2424821406787569E-3</v>
       </c>
-      <c r="C57">
-        <f>B57-$B$46</f>
+      <c r="D58">
+        <f t="shared" si="6"/>
         <v>1.2424821406787569E-3</v>
       </c>
-      <c r="D57">
+      <c r="E58">
         <f t="shared" si="8"/>
         <v>402.42027118945504</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B59">
         <v>7</v>
       </c>
-      <c r="B58">
+      <c r="C59">
         <f t="shared" si="7"/>
         <v>1.1645624974585497E-3</v>
       </c>
-      <c r="C58">
-        <f>B58-$B$46</f>
+      <c r="D59">
+        <f t="shared" si="6"/>
         <v>1.1645624974585497E-3</v>
       </c>
-      <c r="D58">
+      <c r="E59">
         <f t="shared" si="8"/>
         <v>429.34578529805054</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B60">
         <v>8</v>
       </c>
-      <c r="B59">
+      <c r="C60">
         <f t="shared" si="7"/>
         <v>1.0866428542383425E-3</v>
       </c>
-      <c r="C59">
-        <f>B59-$B$46</f>
+      <c r="D60">
+        <f t="shared" si="6"/>
         <v>1.0866428542383425E-3</v>
       </c>
-      <c r="D59">
+      <c r="E60">
         <f t="shared" si="8"/>
         <v>460.13278240389627</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B61">
         <v>9</v>
       </c>
-      <c r="B60">
+      <c r="C61">
         <f t="shared" si="7"/>
         <v>1.0087232110181353E-3</v>
       </c>
-      <c r="C60">
-        <f>B60-$B$46</f>
+      <c r="D61">
+        <f t="shared" si="6"/>
         <v>1.0087232110181353E-3</v>
       </c>
-      <c r="D60">
+      <c r="E61">
         <f t="shared" si="8"/>
         <v>495.67611267250874</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A61">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B62">
         <v>10</v>
       </c>
-      <c r="B61">
+      <c r="C62">
         <f t="shared" si="7"/>
         <v>9.3080356779792794E-4</v>
       </c>
-      <c r="C61">
-        <f>B61-$B$46</f>
+      <c r="D62">
+        <f t="shared" si="6"/>
         <v>9.3080356779792794E-4</v>
       </c>
-      <c r="D61">
+      <c r="E62">
         <f t="shared" si="8"/>
         <v>537.17026588422698</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A62">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B63">
         <v>11</v>
       </c>
-      <c r="B62">
+      <c r="C63">
         <f t="shared" si="7"/>
         <v>8.5288392457772073E-4</v>
       </c>
-      <c r="C62">
-        <f>B62-$B$46</f>
+      <c r="D63">
+        <f t="shared" si="6"/>
         <v>8.5288392457772073E-4</v>
       </c>
-      <c r="D62">
+      <c r="E63">
         <f t="shared" si="8"/>
         <v>586.24624710514934</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A63">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B64">
         <v>12</v>
       </c>
-      <c r="B63">
+      <c r="C64">
         <f t="shared" si="7"/>
         <v>7.7496428135751362E-4</v>
       </c>
-      <c r="C63">
-        <f>B63-$B$46</f>
+      <c r="D64">
+        <f t="shared" si="6"/>
         <v>7.7496428135751362E-4</v>
       </c>
-      <c r="D63">
+      <c r="E64">
         <f t="shared" si="8"/>
         <v>645.19102625497055</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A64">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B65">
         <v>13</v>
       </c>
-      <c r="B64">
+      <c r="C65">
         <f t="shared" si="7"/>
         <v>6.9704463813730641E-4</v>
       </c>
-      <c r="C64">
-        <f>B64-$B$46</f>
+      <c r="D65">
+        <f t="shared" si="6"/>
         <v>6.9704463813730641E-4</v>
       </c>
-      <c r="D64">
+      <c r="E65">
         <f t="shared" si="8"/>
         <v>717.31417565471349</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B66">
         <v>14</v>
       </c>
-      <c r="B65">
+      <c r="C66">
         <f t="shared" si="7"/>
         <v>6.191249949170992E-4</v>
       </c>
-      <c r="C65">
-        <f>B65-$B$46</f>
+      <c r="D66">
+        <f t="shared" si="6"/>
         <v>6.191249949170992E-4</v>
       </c>
-      <c r="D65">
+      <c r="E66">
         <f t="shared" si="8"/>
         <v>807.59136540263569</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B67">
         <v>15</v>
       </c>
-      <c r="B66">
+      <c r="C67">
         <f t="shared" si="7"/>
         <v>5.4120535169689199E-4</v>
       </c>
-      <c r="C66">
-        <f>B66-$B$46</f>
+      <c r="D67">
+        <f t="shared" si="6"/>
         <v>5.4120535169689199E-4</v>
       </c>
-      <c r="D66">
+      <c r="E67">
         <f t="shared" si="8"/>
         <v>923.86373939633643</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B68">
         <v>16</v>
       </c>
-      <c r="B67">
+      <c r="C68">
         <f t="shared" si="7"/>
         <v>4.6328570847668478E-4</v>
       </c>
-      <c r="C67">
-        <f>B67-$B$46</f>
+      <c r="D68">
+        <f t="shared" si="6"/>
         <v>4.6328570847668478E-4</v>
       </c>
-      <c r="D67">
+      <c r="E68">
         <f t="shared" si="8"/>
         <v>1079.247623769864</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B69">
         <v>17</v>
       </c>
-      <c r="B68">
+      <c r="C69">
         <f t="shared" si="7"/>
         <v>3.8536606525647757E-4</v>
       </c>
-      <c r="C68">
-        <f>B68-$B$46</f>
+      <c r="D69">
+        <f t="shared" si="6"/>
         <v>3.8536606525647757E-4</v>
       </c>
-      <c r="D68">
+      <c r="E69">
         <f t="shared" si="8"/>
         <v>1297.4676420126111</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B70">
         <v>18</v>
       </c>
-      <c r="B69">
+      <c r="C70">
         <f t="shared" si="7"/>
         <v>3.0744642203627036E-4</v>
       </c>
-      <c r="C69">
-        <f>B69-$B$46</f>
+      <c r="D70">
+        <f t="shared" si="6"/>
         <v>3.0744642203627036E-4</v>
       </c>
-      <c r="D69">
+      <c r="E70">
         <f t="shared" si="8"/>
         <v>1626.2996221859219</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B71">
         <v>19</v>
       </c>
-      <c r="B70">
+      <c r="C71">
         <f t="shared" si="7"/>
         <v>2.2952677881606315E-4</v>
       </c>
-      <c r="C70">
-        <f>B70-$B$46</f>
+      <c r="D71">
+        <f t="shared" si="6"/>
         <v>2.2952677881606315E-4</v>
       </c>
-      <c r="D70">
+      <c r="E71">
         <f t="shared" si="8"/>
         <v>2178.3950551612415</v>
       </c>
@@ -3625,5 +3813,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="4">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>